--- a/experimental-data/ecw-growth-R2.xlsx
+++ b/experimental-data/ecw-growth-R2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nufeb-cyano-e-coli\experimental-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6212C019-68EE-4036-8F4A-FC9223566D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390BB9F4-C6D7-4F93-A52F-338D5D19F065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C2A47E42-019C-4420-8CF8-F7D80860CE2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C2A47E42-019C-4420-8CF8-F7D80860CE2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Growth" sheetId="1" r:id="rId1"/>
+    <sheet name="Sucrose" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -48,11 +49,17 @@
   <si>
     <t>Replicate</t>
   </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B7BF81-9A35-4901-8894-301566187C69}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137:D181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,4 +2957,2488 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D1EBE-0771-4BF8-BFC2-739835C040C9}">
+  <dimension ref="A1:AD129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.8924799999999999</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.5863100000000001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.87131000000000003</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.27606000000000003</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.7339999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.8369999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.8655675972696066</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.8236547886235375</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5938261058730518</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.89986393242638574</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.30868987028066214</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.4537586905500946E-2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.0523287350664436E-2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.8304571804129881</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.7890396863053704</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.62378</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.8424824787610633</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.28542943671008975</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6.5924887070704749E-2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.7375641988514377E-2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.8326739200937663</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.7896986605167269</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.5546199999999999</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.8448855705258046</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.28741210984420323</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6.6752225623402162E-2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.3853862484071606E-2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.7245299999999997</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.7189500000000004</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.8327599999999999</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.0393400000000002</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.44511000000000001</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.333E-2</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.6952111774932668</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.6102700592310404</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.0107709430982315</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.2966591456156826</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.48260768013823524</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.3550734153618683E-2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.7679115245375503E-2</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>24</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4.6671879158903389</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4.5988939808332026</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.9259209700668265</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.3581013509082567</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.533280870876779</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6.3719221704026899E-2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.5961876439811769E-2</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4.656750931215246</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.5989150678592292</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3.9331600185610873</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.374804811468425</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.53851614991490748</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6.5226001451507282E-2</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.5455012157659978E-2</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>24</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9.5525300000000009</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9.4423888999999992</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8.1163100000000004</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6.5586099999999998</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2.8960599999999999</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.96960999999999997</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.63933799999999996</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.47308739999999999</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.8090143841758195</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9.0922310328910019</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8.3109437260904855</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6.0859025835981848</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3.0014454036253149</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.94405549571728997</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>19</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.45674818399935407</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.40566000000000002</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9.2964710639977692</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9.2082444493306568</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8.4534167460675693</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6.2052718982536961</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3.1157065587071613</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.78260274862125334</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>19</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.62812960708153487</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9.2987215862395125</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9.1573450313692479</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8.5018719133343978</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6.2510928977294293</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3.1295628282644379</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.82898070810290025</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>19</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.6250038736066269</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>24</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.41053000000000001</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>18.988250000000001</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>18.644459999999999</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1">
+        <v>16.755990000000001</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>15.01637</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
+        <v>11.385249999999999</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1">
+        <v>9.4357100000000003</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>19</v>
+      </c>
+      <c r="B104" s="1">
+        <v>9.06189</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>24</v>
+      </c>
+      <c r="B105" s="1">
+        <v>8.6050265127509906</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>18.637560951021602</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>18.168185246890328</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <v>16.98648819535455</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>15.322997304625114</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1">
+        <v>11.149620940799027</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9.3315002705986601</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>19</v>
+      </c>
+      <c r="B112" s="1">
+        <v>8.9284887731936422</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>24</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8.4393850057892177</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>18.360938807944983</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>18.187753231005832</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1">
+        <v>17.102794268733799</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>15.145568851187932</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>11.644279309861533</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1">
+        <v>9.2539915828617527</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>19</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8.8380380764818653</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>24</v>
+      </c>
+      <c r="B121" s="1">
+        <v>8.2960039013720301</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>18.362886615535178</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>18.205444543066022</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>6</v>
+      </c>
+      <c r="B124" s="1">
+        <v>18.128330058591299</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>15.241356546070184</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>11.745499916550978</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9.3533443460757457</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>19</v>
+      </c>
+      <c r="B128" s="1">
+        <v>9.5542735934069736</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1">
+        <v>8.8219579526219931</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>